--- a/Real-world data in Europe/Confirmed.xlsx
+++ b/Real-world data in Europe/Confirmed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyixuan/Desktop/CoronaProj/data and experiments/Europe data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyixuan/Documents/GitHub/Statistical_Inference_Using_GLEaM_with_Spatial_Heterogeneity_and_Correlation/Real-world data in Europe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1A314-8F2C-E746-A389-C7FC6928C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF04E70E-9625-984F-967D-930E8369DBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="1420" windowWidth="27840" windowHeight="20180" xr2:uid="{589B519B-048C-8743-AD90-AC4A177BCCD0}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27840" windowHeight="20180" xr2:uid="{589B519B-048C-8743-AD90-AC4A177BCCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -133,104 +127,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -239,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,32 +180,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4006C65-36B3-714E-9F5B-53B92B2CECF7}">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -608,4711 +521,4711 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43952</v>
       </c>
       <c r="B2" s="2">
         <v>9311</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>5422</v>
       </c>
       <c r="D2" s="2">
         <v>7783</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="8">
         <v>15463</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="8">
         <v>160758</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>29705</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>207428</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>215216</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>49032</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>167846</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>20833</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>43953</v>
       </c>
       <c r="B3" s="2">
         <v>9407</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>5470</v>
       </c>
       <c r="D3" s="2">
         <v>7809</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <v>15517</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <v>161703</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>29817</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>209328</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>216582</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>49517</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>168637</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>21176</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>43954</v>
       </c>
       <c r="B4" s="2">
         <v>9523</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>5528</v>
       </c>
       <c r="D4" s="2">
         <v>7847</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>15554</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>162496</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>29905</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>210717</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>217466</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>49906</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>168887</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>21506</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43955</v>
       </c>
       <c r="B5" s="2">
         <v>9670</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>5589</v>
       </c>
       <c r="D5" s="2">
         <v>7904</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>15582</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>163175</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>29981</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>211938</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>218011</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>50267</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>169405</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>21772</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43956</v>
       </c>
       <c r="B6" s="2">
         <v>9821</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>5722</v>
       </c>
       <c r="D6" s="2">
         <v>7955</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>15594</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>163860</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <v>30009</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>213013</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>219329</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>50509</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>170467</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>21983</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43957</v>
       </c>
       <c r="B7" s="2">
         <v>9938</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>5847</v>
       </c>
       <c r="D7" s="2">
         <v>7996</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>15624</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>164807</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>30060</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>214457</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>220325</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>50781</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>174596</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>22248</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>43958</v>
       </c>
       <c r="B8" s="2">
         <v>10083</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>5942</v>
       </c>
       <c r="D8" s="2">
         <v>8034</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>15678</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="8">
         <v>166091</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>30126</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>215858</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>221447</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>51420</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>175218</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>22385</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>43959</v>
       </c>
       <c r="B9" s="2">
         <v>10218</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>6050</v>
       </c>
       <c r="D9" s="2">
         <v>8070</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>15724</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>167300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>30207</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>217185</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>222857</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>52011</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>175743</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>22541</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43960</v>
       </c>
       <c r="B10" s="2">
         <v>10319</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>6131</v>
       </c>
       <c r="D10" s="2">
         <v>8099</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>15763</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>168551</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>30251</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>218268</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>223578</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>52596</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>176132</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>22760</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43961</v>
       </c>
       <c r="B11" s="2">
         <v>10429</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>6178</v>
       </c>
       <c r="D11" s="2">
         <v>8105</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>15812</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>169218</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>30305</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>219070</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>224350</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>53081</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>176338</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>22996</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>43962</v>
       </c>
       <c r="B12" s="2">
         <v>10513</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>6206</v>
       </c>
       <c r="D12" s="2">
         <v>8132</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="8">
         <v>15842</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>169575</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>30344</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>219814</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>227436</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>53449</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>176651</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>23135</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>43963</v>
       </c>
       <c r="B13" s="2">
         <v>10591</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="7">
         <v>6298</v>
       </c>
       <c r="D13" s="2">
         <v>8157</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>15857</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>170508</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>30380</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>221216</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>228030</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>53779</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>177330</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>23242</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>43964</v>
       </c>
       <c r="B14" s="2">
         <v>10667</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>6365</v>
       </c>
       <c r="D14" s="2">
         <v>8175</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="8">
         <v>15923</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="8">
         <v>171306</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="9">
         <v>30413</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>222104</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>228691</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>53981</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>177790</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>23401</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>43965</v>
       </c>
       <c r="B15" s="2">
         <v>10713</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>6443</v>
       </c>
       <c r="D15" s="2">
         <v>8196</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="8">
         <v>15961</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <v>172239</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="9">
         <v>30463</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>223096</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>229540</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>54288</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>178353</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>23827</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>43966</v>
       </c>
       <c r="B16" s="2">
         <v>10791</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>6493</v>
       </c>
       <c r="D16" s="2">
         <v>8219</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="8">
         <v>16013</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="8">
         <v>173152</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="9">
         <v>30514</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>223885</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>230183</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>54644</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>178837</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>23956</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>43967</v>
       </c>
       <c r="B17" s="2">
         <v>10858</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>6548</v>
       </c>
       <c r="D17" s="2">
         <v>8237</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="8">
         <v>16067</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="8">
         <v>173772</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="9">
         <v>30572</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>224760</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>230698</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>54989</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>179140</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>24048</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>43968</v>
       </c>
       <c r="B18" s="2">
         <v>10927</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>6573</v>
       </c>
       <c r="D18" s="2">
         <v>8249</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="8">
         <v>16148</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="8">
         <v>174355</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="9">
         <v>30587</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>225435</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>230698</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>55280</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>179250</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>24112</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>43969</v>
       </c>
       <c r="B19" s="2">
         <v>10968</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="7">
         <v>6602</v>
       </c>
       <c r="D19" s="2">
         <v>8257</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="8">
         <v>16163</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="8">
         <v>174697</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="9">
         <v>30597</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>225886</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>231606</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>55559</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>179650</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>24200</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>43970</v>
       </c>
       <c r="B20" s="2">
         <v>11044</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="7">
         <v>6647</v>
       </c>
       <c r="D20" s="2">
         <v>8267</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="8">
         <v>16189</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="8">
         <v>175210</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="9">
         <v>30618</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>226699</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>232037</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>55791</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>180143</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>24251</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>43971</v>
       </c>
       <c r="B21" s="2">
         <v>11117</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="7">
         <v>6688</v>
       </c>
       <c r="D21" s="2">
         <v>8281</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="8">
         <v>16247</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="8">
         <v>176007</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>30658</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>227364</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>232555</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>55983</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>180499</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>24315</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>43972</v>
       </c>
       <c r="B22" s="2">
         <v>11182</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="7">
         <v>6731</v>
       </c>
       <c r="D22" s="2">
         <v>8309</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="8">
         <v>16308</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="8">
         <v>176752</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>30694</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>228006</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>233037</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>56235</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>180752</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>24391</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>43973</v>
       </c>
       <c r="B23" s="2">
         <v>11230</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="7">
         <v>6753</v>
       </c>
       <c r="D23" s="2">
         <v>8332</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="8">
         <v>16338</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="8">
         <v>177212</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="9">
         <v>30707</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>228658</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>234824</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>56511</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>181444</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>24506</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>43974</v>
       </c>
       <c r="B24" s="2">
         <v>11289</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="7">
         <v>6785</v>
       </c>
       <c r="D24" s="2">
         <v>8346</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="8">
         <v>16369</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="8">
         <v>177850</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="9">
         <v>30725</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>229327</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>235290</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>56810</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>181969</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>24582</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>43975</v>
       </c>
       <c r="B25" s="2">
         <v>11360</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="7">
         <v>6803</v>
       </c>
       <c r="D25" s="2">
         <v>8352</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="8">
         <v>16397</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="8">
         <v>178281</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="9">
         <v>30736</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>229858</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>235772</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>57092</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>181410</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>24639</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>43976</v>
       </c>
       <c r="B26" s="2">
         <v>11387</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="7">
         <v>6823</v>
       </c>
       <c r="D26" s="2">
         <v>8364</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="8">
         <v>16421</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="8">
         <v>178570</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="9">
         <v>30746</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>230158</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>235400</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>57342</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>181684</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>24698</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>43977</v>
       </c>
       <c r="B27" s="2">
         <v>11428</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="7">
         <v>6868</v>
       </c>
       <c r="D27" s="2">
         <v>8383</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="8">
         <v>16452</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="8">
         <v>179002</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="9">
         <v>30761</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>230555</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>236259</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>57455</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>181880</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>24735</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>43978</v>
       </c>
       <c r="B28" s="2">
         <v>11480</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="7">
         <v>6901</v>
       </c>
       <c r="D28" s="2">
         <v>8401</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="8">
         <v>16477</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="8">
         <v>179364</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="9">
         <v>30776</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>231139</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>236259</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>57592</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>182018</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>24803</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>43979</v>
       </c>
       <c r="B29" s="2">
         <v>11512</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="7">
         <v>6913</v>
       </c>
       <c r="D29" s="2">
         <v>8411</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="8">
         <v>16499</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="8">
         <v>179717</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="9">
         <v>30796</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>231732</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>237906</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>57849</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>185300</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>24841</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>43980</v>
       </c>
       <c r="B30" s="2">
         <v>11593</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="7">
         <v>6943</v>
       </c>
       <c r="D30" s="2">
         <v>8422</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="8">
         <v>16549</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="8">
         <v>180458</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="9">
         <v>30828</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>232248</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>238564</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>58061</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>185842</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>24876</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>43981</v>
       </c>
       <c r="B31" s="2">
         <v>11633</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="7">
         <v>6964</v>
       </c>
       <c r="D31" s="2">
         <v>8437</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="8">
         <v>16568</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <v>181196</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="9">
         <v>30845</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>232664</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>239228</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>58186</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>187608</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>24929</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>43982</v>
       </c>
       <c r="B32" s="2">
         <v>11669</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="7">
         <v>6974</v>
       </c>
       <c r="D32" s="2">
         <v>8440</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="8">
         <v>16610</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="8">
         <v>181482</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="9">
         <v>30862</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>232997</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>239479</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>58381</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>187817</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>24990</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>43983</v>
       </c>
       <c r="B33" s="2">
         <v>11699</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="7">
         <v>6986</v>
       </c>
       <c r="D33" s="2">
         <v>8446</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="8">
         <v>16642</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="8">
         <v>181815</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="9">
         <v>30871</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>233197</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>239638</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>58517</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>187986</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>25062</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>43984</v>
       </c>
       <c r="B34" s="2">
         <v>11734</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="7">
         <v>7003</v>
       </c>
       <c r="D34" s="2">
         <v>8455</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="8">
         <v>16647</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="8">
         <v>182028</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="9">
         <v>30874</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>233515</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>239932</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>58615</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>187265</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>25066</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>43985</v>
       </c>
       <c r="B35" s="2">
         <v>11771</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="7">
         <v>7018</v>
       </c>
       <c r="D35" s="2">
         <v>8477</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="8">
         <v>16666</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="8">
         <v>182370</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="9">
         <v>30893</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>233836</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>240326</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>58685</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>184015</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>25111</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>43986</v>
       </c>
       <c r="B36" s="2">
         <v>11811</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="7">
         <v>7043</v>
       </c>
       <c r="D36" s="2">
         <v>8504</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="8">
         <v>16682</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="8">
         <v>182764</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="9">
         <v>30913</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>234013</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>240660</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>58767</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>188286</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>25142</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>43987</v>
       </c>
       <c r="B37" s="2">
         <v>11875</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="7">
         <v>7055</v>
       </c>
       <c r="D37" s="2">
         <v>8522</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="8">
         <v>16735</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="8">
         <v>183271</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="9">
         <v>30936</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>234531</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>240978</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>58907</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>188808</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>25163</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>43988</v>
       </c>
       <c r="B38" s="2">
         <v>11924</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="7">
         <v>7068</v>
       </c>
       <c r="D38" s="2">
         <v>8531</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="8">
         <v>16752</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <v>183678</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="9">
         <v>30956</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>234801</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>241310</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>59072</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>189330</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>25183</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>43989</v>
       </c>
       <c r="B39" s="2">
         <v>11948</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="7">
         <v>7081</v>
       </c>
       <c r="D39" s="2">
         <v>8547</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="8">
         <v>16819</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="8">
         <v>183979</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="9">
         <v>30965</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>234998</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>241550</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>59226</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>189621</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>25201</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>43990</v>
       </c>
       <c r="B40" s="2">
         <v>11962</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="7">
         <v>7085</v>
       </c>
       <c r="D40" s="2">
         <v>8561</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="8">
         <v>16850</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="8">
         <v>184193</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="9">
         <v>30972</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <v>235278</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>241717</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>59348</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>189782</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>25207</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>43991</v>
       </c>
       <c r="B41" s="2">
         <v>12001</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="7">
         <v>7095</v>
       </c>
       <c r="D41" s="2">
         <v>8576</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="8">
         <v>16875</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="8">
         <v>184543</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="9">
         <v>30988</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>235561</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>241966</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>59437</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>190266</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>25215</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>43992</v>
       </c>
       <c r="B42" s="2">
         <v>12016</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="7">
         <v>7103</v>
       </c>
       <c r="D42" s="2">
         <v>8594</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="8">
         <v>16899</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="8">
         <v>184861</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="9">
         <v>31011</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <v>235763</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>242280</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>59569</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>190743</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>25231</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>43993</v>
       </c>
       <c r="B43" s="2">
         <v>12035</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="7">
         <v>7110</v>
       </c>
       <c r="D43" s="2">
         <v>8608</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="8">
         <v>16914</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="8">
         <v>185416</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="9">
         <v>31044</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <v>236142</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>242707</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>59711</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>191040</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>25238</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>43994</v>
       </c>
       <c r="B44" s="2">
         <v>12099</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="7">
         <v>7119</v>
       </c>
       <c r="D44" s="2">
         <v>8620</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="8">
         <v>16948</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="8">
         <v>185674</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="9">
         <v>31063</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <v>236305</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>243209</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>59819</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="4">
         <v>191679</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>25250</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>43995</v>
       </c>
       <c r="B45" s="2">
         <v>12139</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="7">
         <v>7132</v>
       </c>
       <c r="D45" s="2">
         <v>8628</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="8">
         <v>16970</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="8">
         <v>186022</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="9">
         <v>31094</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <v>236651</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>243605</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>59918</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="4">
         <v>192043</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>25295</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>43996</v>
       </c>
       <c r="B46" s="2">
         <v>12193</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="7">
         <v>7134</v>
       </c>
       <c r="D46" s="2">
         <v>8631</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="8">
         <v>17007</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="8">
         <v>186269</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="9">
         <v>31117</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <v>236989</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>243928</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>60029</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="4">
         <v>192317</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>25303</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>43997</v>
       </c>
       <c r="B47" s="2">
         <v>12217</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="7">
         <v>7139</v>
       </c>
       <c r="D47" s="2">
         <v>8647</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="8">
         <v>17029</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="8">
         <v>186461</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="9">
         <v>31131</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <v>237290</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>244109</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>60100</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="4">
         <v>192369</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>25321</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>43998</v>
       </c>
       <c r="B48" s="2">
         <v>12250</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="7">
         <v>7155</v>
       </c>
       <c r="D48" s="2">
         <v>8660</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="8">
         <v>17047</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="8">
         <v>186839</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="9">
         <v>31154</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <v>237500</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>244328</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>60155</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="4">
         <v>192915</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>25334</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>43999</v>
       </c>
       <c r="B49" s="2">
         <v>12294</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="7">
         <v>7163</v>
       </c>
       <c r="D49" s="2">
         <v>8692</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="8">
         <v>17100</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="8">
         <v>187184</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="9">
         <v>31187</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>237828</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>244683</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>60244</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <v>193256</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>25341</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>44000</v>
       </c>
       <c r="B50" s="2">
         <v>12344</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="7">
         <v>7167</v>
       </c>
       <c r="D50" s="2">
         <v>8708</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="8">
         <v>17119</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="8">
         <v>187764</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="9">
         <v>31200</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>238159</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>245268</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>60348</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="4">
         <v>193576</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>25355</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>44001</v>
       </c>
       <c r="B51" s="2">
         <v>12391</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="7">
         <v>7175</v>
       </c>
       <c r="D51" s="2">
         <v>8726</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="8">
         <v>17150</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="8">
         <v>188534</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="9">
         <v>31235</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>238011</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>245575</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>60476</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="4">
         <v>194121</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="4">
         <v>25368</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>44002</v>
       </c>
       <c r="B52" s="2">
         <v>12391</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="7">
         <v>7175</v>
       </c>
       <c r="D52" s="2">
         <v>8742</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="8">
         <v>17182</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="8">
         <v>189135</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="9">
         <v>31243</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>238275</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>245938</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>60550</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="4">
         <v>194535</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>25374</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>44003</v>
       </c>
       <c r="B53" s="2">
         <v>12391</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="7">
         <v>7177</v>
       </c>
       <c r="D53" s="2">
         <v>8745</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="8">
         <v>17234</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="8">
         <v>189822</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="9">
         <v>31292</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <v>238499</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>246272</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>60550</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="4">
         <v>194599</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>25379</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>44004</v>
       </c>
       <c r="B54" s="2">
         <v>12527</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="7">
         <v>7190</v>
       </c>
       <c r="D54" s="2">
         <v>8751</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="8">
         <v>17266</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="8">
         <v>190359</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="9">
         <v>31310</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <v>238720</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="3">
         <v>246504</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>60550</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="4">
         <v>194693</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>25383</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>44005</v>
       </c>
       <c r="B55" s="2">
         <v>12561</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="7">
         <v>7195</v>
       </c>
       <c r="D55" s="2">
         <v>8772</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="8">
         <v>17295</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="8">
         <v>190862</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="9">
         <v>31332</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>238833</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>246752</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="4">
         <v>60810</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="4">
         <v>195256</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="4">
         <v>25391</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>44006</v>
       </c>
       <c r="B56" s="2">
         <v>12615</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="7">
         <v>7200</v>
       </c>
       <c r="D56" s="2">
         <v>8788</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="8">
         <v>17326</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="8">
         <v>191449</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="9">
         <v>31376</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <v>239410</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>247086</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>60898</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>195256</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>25396</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>44007</v>
       </c>
       <c r="B57" s="2">
         <v>12636</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="7">
         <v>7217</v>
       </c>
       <c r="D57" s="2">
         <v>8788</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="8">
         <v>17369</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="8">
         <v>192079</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="9">
         <v>31428</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <v>239706</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>247486</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="4">
         <v>61007</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="4">
         <v>195256</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>25405</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>44008</v>
       </c>
       <c r="B58" s="2">
         <v>12675</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="7">
         <v>7231</v>
       </c>
       <c r="D58" s="2">
         <v>8832</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="8">
         <v>17404</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="8">
         <v>192556</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="9">
         <v>31486</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <v>239961</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="3">
         <v>247905</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>61106</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="4">
         <v>196267</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="4">
         <v>25414</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>44009</v>
       </c>
       <c r="B59" s="2">
         <v>12675</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="7">
         <v>7234</v>
       </c>
       <c r="D59" s="2">
         <v>8846</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="8">
         <v>17448</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="8">
         <v>193243</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="9">
         <v>31555</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <v>240136</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="3">
         <v>248469</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>61209</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="4">
         <v>196521</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>25437</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>44010</v>
       </c>
       <c r="B60" s="2">
         <v>12675</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="7">
         <v>7236</v>
       </c>
       <c r="D60" s="2">
         <v>8855</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="8">
         <v>17522</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="8">
         <v>193499</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="9">
         <v>31617</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <v>240310</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="3">
         <v>248770</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="4">
         <v>61295</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="4">
         <v>196111</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="4">
         <v>25439</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>44011</v>
       </c>
       <c r="B61" s="2">
         <v>12751</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="7">
         <v>7243</v>
       </c>
       <c r="D61" s="2">
         <v>8862</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="8">
         <v>17567</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="8">
         <v>193761</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="9">
         <v>31652</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <v>240436</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="3">
         <v>248970</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>61361</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>196390</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="4">
         <v>25462</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>44012</v>
       </c>
       <c r="B62" s="2">
         <v>12768</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="7">
         <v>7259</v>
       </c>
       <c r="D62" s="2">
         <v>8879</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="8">
         <v>17629</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="8">
         <v>194259</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="9">
         <v>31714</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <v>240578</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="3">
         <v>249271</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="4">
         <v>61427</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="4">
         <v>196554</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="4">
         <v>25473</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>44013</v>
       </c>
       <c r="B63" s="2">
         <v>12794</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="7">
         <v>7269</v>
       </c>
       <c r="D63" s="2">
         <v>8896</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="8">
         <v>17678</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="8">
         <v>194725</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="9">
         <v>31851</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <v>240760</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="3">
         <v>249659</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>61509</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="4">
         <v>197238</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="4">
         <v>25477</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>44014</v>
       </c>
       <c r="B64" s="2">
         <v>12815</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="7">
         <v>7271</v>
       </c>
       <c r="D64" s="2">
         <v>8902</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="8">
         <v>17779</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="8">
         <v>195228</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="9">
         <v>31967</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <v>240961</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="3">
         <v>250103</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="4">
         <v>61598</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="4">
         <v>197591</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="4">
         <v>25489</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>44015</v>
       </c>
       <c r="B65" s="2">
         <v>12832</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="7">
         <v>7278</v>
       </c>
       <c r="D65" s="2">
         <v>8921</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="8">
         <v>17874</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="8">
         <v>195674</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="9">
         <v>32101</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>241184</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>250545</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="4">
         <v>61727</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="4">
         <v>197994</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="4">
         <v>25498</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>44016</v>
       </c>
       <c r="B66" s="2">
         <v>12832</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="7">
         <v>7284</v>
       </c>
       <c r="D66" s="2">
         <v>8926</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="8">
         <v>17954</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="8">
         <v>196096</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="9">
         <v>32198</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <v>241419</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="3">
         <v>250545</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="4">
         <v>61838</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="4">
         <v>197994</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="4">
         <v>25509</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>44017</v>
       </c>
       <c r="B67" s="2">
         <v>12832</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="7">
         <v>7286</v>
       </c>
       <c r="D67" s="2">
         <v>8930</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="8">
         <v>18088</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="8">
         <v>196335</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="9">
         <v>32268</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <v>241611</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="3">
         <v>250545</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="4">
         <v>62016</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="4">
         <v>197994</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="4">
         <v>25527</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>44018</v>
       </c>
       <c r="B68" s="2">
         <v>12878</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="7">
         <v>7289</v>
       </c>
       <c r="D68" s="2">
         <v>8936</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="8">
         <v>18194</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="8">
         <v>196554</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="9">
         <v>32315</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <v>241819</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="3">
         <v>251789</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="4">
         <v>62058</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="4">
         <v>198850</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="4">
         <v>25531</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>44019</v>
       </c>
       <c r="B69" s="2">
         <v>12888</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="7">
         <v>7297</v>
       </c>
       <c r="D69" s="2">
         <v>8947</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="8">
         <v>18270</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="8">
         <v>196944</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="9">
         <v>32369</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <v>241956</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="3">
         <v>252130</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="4">
         <v>62058</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="4">
         <v>199170</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="4">
         <v>25538</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>44020</v>
       </c>
       <c r="B70" s="2">
         <v>12900</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="7">
         <v>7300</v>
       </c>
       <c r="D70" s="2">
         <v>8950</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="8">
         <v>18338</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="8">
         <v>197341</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="9">
         <v>32498</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>242149</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>252513</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="4">
         <v>62123</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>199699</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="4">
         <v>25542</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>44021</v>
       </c>
       <c r="B71" s="2">
         <v>12916</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="7">
         <v>7309</v>
       </c>
       <c r="D71" s="2">
         <v>8965</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="8">
         <v>18429</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="8">
         <v>197783</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="9">
         <v>32586</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <v>242363</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="3">
         <v>253056</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="4">
         <v>62210</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="4">
         <v>200027</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="4">
         <v>25565</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>44022</v>
       </c>
       <c r="B72" s="2">
         <v>12946</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="7">
         <v>7317</v>
       </c>
       <c r="D72" s="2">
         <v>8974</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="8">
         <v>18547</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="8">
         <v>198178</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="9">
         <v>32690</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <v>242639</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="3">
         <v>253908</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="4">
         <v>62357</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="4">
         <v>200569</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="4">
         <v>25589</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>44023</v>
       </c>
       <c r="B73" s="2">
         <v>12946</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="7">
         <v>7323</v>
       </c>
       <c r="D73" s="2">
         <v>8977</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="8">
         <v>18619</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="8">
         <v>198556</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="9">
         <v>32817</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="3">
         <v>242827</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="3">
         <v>253908</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="4">
         <v>62469</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="4">
         <v>200569</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="4">
         <v>25611</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>44024</v>
       </c>
       <c r="B74" s="2">
         <v>12946</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="7">
         <v>7323</v>
       </c>
       <c r="D74" s="2">
         <v>8981</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="8">
         <v>18724</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="8">
         <v>198804</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="9">
         <v>32883</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="3">
         <v>243061</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="3">
         <v>253908</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="4">
         <v>62707</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="4">
         <v>200569</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="4">
         <v>25628</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>44025</v>
       </c>
       <c r="B75" s="2">
         <v>13037</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="7">
         <v>7327</v>
       </c>
       <c r="D75" s="2">
         <v>8984</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="8">
         <v>18814</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="8">
         <v>198963</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="9">
         <v>32946</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <v>243230</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="3">
         <v>255953</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="4">
         <v>62707</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="4">
         <v>201755</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="4">
         <v>25638</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>44026</v>
       </c>
       <c r="B76" s="2">
         <v>13061</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="7">
         <v>7333</v>
       </c>
       <c r="D76" s="2">
         <v>9001</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="8">
         <v>18866</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="8">
         <v>199375</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="9">
         <v>33016</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <v>243344</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="3">
         <v>256619</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="4">
         <v>62781</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76" s="4">
         <v>201755</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="4">
         <v>25670</v>
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>44027</v>
       </c>
       <c r="B77" s="2">
         <v>13092</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="7">
         <v>7338</v>
       </c>
       <c r="D77" s="2">
         <v>9011</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="8">
         <v>18965</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="8">
         <v>199726</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="9">
         <v>33148</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <v>243506</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="3">
         <v>257494</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="4">
         <v>62872</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="4">
         <v>202383</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="4">
         <v>25683</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>44028</v>
       </c>
       <c r="B78" s="2">
         <v>13124</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="7">
         <v>7343</v>
       </c>
       <c r="D78" s="2">
         <v>9015</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="8">
         <v>19087</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="8">
         <v>200260</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="9">
         <v>33290</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <v>243736</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="3">
         <v>258855</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="4">
         <v>63238</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="4">
         <v>202819</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="4">
         <v>25698</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>44029</v>
       </c>
       <c r="B79" s="2">
         <v>13173</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="7">
         <v>7352</v>
       </c>
       <c r="D79" s="2">
         <v>9025</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="8">
         <v>19217</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="8">
         <v>200843</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="9">
         <v>33382</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <v>243967</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="3">
         <v>260255</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="4">
         <v>63499</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="4">
         <v>203516</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="4">
         <v>25730</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>44030</v>
       </c>
       <c r="B80" s="2">
         <v>13173</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="7">
         <v>7358</v>
       </c>
       <c r="D80" s="2">
         <v>9028</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="8">
         <v>19358</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="8">
         <v>201372</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="9">
         <v>33492</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="3">
         <v>244216</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="3">
         <v>260255</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="4">
         <v>63706</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="4">
         <v>203516</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="4">
         <v>25750</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>44031</v>
       </c>
       <c r="B81" s="2">
         <v>13173</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="7">
         <v>7365</v>
       </c>
       <c r="D81" s="2">
         <v>9028</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="8">
         <v>19482</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="8">
         <v>201574</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="9">
         <v>33591</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <v>244434</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="3">
         <v>260255</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="4">
         <v>63706</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="4">
         <v>203516</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="4">
         <v>25760</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>44032</v>
       </c>
       <c r="B82" s="2">
         <v>13262</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="7">
         <v>7370</v>
       </c>
       <c r="D82" s="2">
         <v>9034</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="8">
         <v>19563</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="8">
         <v>201823</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="9">
         <v>33634</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="3">
         <v>244624</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="3">
         <v>264836</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="4">
         <v>64094</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="4">
         <v>205308</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="4">
         <v>25766</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>44033</v>
       </c>
       <c r="B83" s="2">
         <v>13302</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="7">
         <v>7382</v>
       </c>
       <c r="D83" s="2">
         <v>9053</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="8">
         <v>19650</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="8">
         <v>202345</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="9">
         <v>33742</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="3">
         <v>244752</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I83" s="3">
         <v>266194</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="4">
         <v>64258</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="4">
         <v>205773</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="4">
         <v>25802</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>44034</v>
       </c>
       <c r="B84" s="2">
         <v>13350</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="7">
         <v>7390</v>
       </c>
       <c r="D84" s="2">
         <v>9059</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="8">
         <v>19740</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="8">
         <v>202799</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="9">
         <v>33883</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <v>245032</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="3">
         <v>267551</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="4">
         <v>64627</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84" s="4">
         <v>206641</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="4">
         <v>25819</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>44035</v>
       </c>
       <c r="B85" s="2">
         <v>13390</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="7">
         <v>7401</v>
       </c>
       <c r="D85" s="2">
         <v>9085</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="8">
         <v>19877</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="8">
         <v>203368</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="9">
         <v>34000</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="3">
         <v>245338</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="3">
         <v>270166</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="4">
         <v>64847</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="4">
         <v>207650</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="4">
         <v>25826</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>44036</v>
       </c>
       <c r="B86" s="2">
         <v>13438</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="7">
         <v>7404</v>
       </c>
       <c r="D86" s="2">
         <v>9092</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="8">
         <v>20039</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="8">
         <v>204183</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="9">
         <v>34154</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <v>245590</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="3">
         <v>272421</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="4">
         <v>65199</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="4">
         <v>208553</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="4">
         <v>25845</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>44037</v>
       </c>
       <c r="B87" s="2">
         <v>13438</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="7">
         <v>7414</v>
       </c>
       <c r="D87" s="2">
         <v>9111</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="8">
         <v>20156</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="8">
         <v>204964</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="9">
         <v>34302</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="3">
         <v>245864</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="3">
         <v>272421</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="4">
         <v>65727</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="4">
         <v>208553</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="4">
         <v>25869</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>44038</v>
       </c>
       <c r="B88" s="2">
         <v>13438</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="7">
         <v>7418</v>
       </c>
       <c r="D88" s="2">
         <v>9117</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="8">
         <v>20309</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="8">
         <v>205269</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="9">
         <v>34412</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="3">
         <v>246118</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="3">
         <v>272421</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="4">
         <v>66026</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88" s="4">
         <v>208553</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="4">
         <v>25881</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>44039</v>
       </c>
       <c r="B89" s="2">
         <v>13547</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="7">
         <v>7426</v>
       </c>
       <c r="D89" s="2">
         <v>9132</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="8">
         <v>20421</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="8">
         <v>205609</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="9">
         <v>34477</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="3">
         <v>246286</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="3">
         <v>278782</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="4">
         <v>66428</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="4">
         <v>210821</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="4">
         <v>25892</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>44040</v>
       </c>
       <c r="B90" s="2">
         <v>13577</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="7">
         <v>7438</v>
       </c>
       <c r="D90" s="2">
         <v>9150</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="8">
         <v>20522</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="8">
         <v>206242</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="9">
         <v>34609</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="3">
         <v>246488</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="3">
         <v>280610</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="4">
         <v>66662</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90" s="4">
         <v>211337</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L90" s="4">
         <v>25929</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>44041</v>
       </c>
       <c r="B91" s="2">
         <v>13634</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="7">
         <v>7447</v>
       </c>
       <c r="D91" s="2">
         <v>9172</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="8">
         <v>20618</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="8">
         <v>206926</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="9">
         <v>34802</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <v>246776</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="3">
         <v>282641</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="4">
         <v>67335</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="4">
         <v>212676</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="4">
         <v>25942</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>44042</v>
       </c>
       <c r="B92" s="2">
         <v>13725</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="7">
         <v>7459</v>
       </c>
       <c r="D92" s="2">
         <v>9208</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="8">
         <v>20771</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F92" s="8">
         <v>207828</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="9">
         <v>35022</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="3">
         <v>247158</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="3">
         <v>285430</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="4">
         <v>68006</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92" s="4">
         <v>213927</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92" s="4">
         <v>26027</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>44043</v>
       </c>
       <c r="B93" s="2">
         <v>13789</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="7">
         <v>7467</v>
       </c>
       <c r="D93" s="2">
         <v>9240</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="8">
         <v>20873</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="8">
         <v>208698</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="9">
         <v>35232</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="3">
         <v>247537</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I93" s="3">
         <v>288522</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="4">
         <v>68751</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93" s="4">
         <v>215135</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93" s="4">
         <v>26065</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>44044</v>
       </c>
       <c r="B94" s="2">
         <v>13789</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="7">
         <v>7485</v>
       </c>
       <c r="D94" s="2">
         <v>9253</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="8">
         <v>21063</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94" s="8">
         <v>209653</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="9">
         <v>35412</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="3">
         <v>247832</v>
       </c>
-      <c r="I94" s="4">
+      <c r="I94" s="3">
         <v>288522</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="4">
         <v>69402</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="4">
         <v>215135</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94" s="4">
         <v>26109</v>
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>44045</v>
       </c>
       <c r="B95" s="2">
         <v>13789</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="7">
         <v>7500</v>
       </c>
       <c r="D95" s="2">
         <v>9268</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="8">
         <v>21186</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="8">
         <v>209893</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="9">
         <v>35550</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="3">
         <v>248070</v>
       </c>
-      <c r="I95" s="4">
+      <c r="I95" s="3">
         <v>288522</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95" s="4">
         <v>69849</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95" s="4">
         <v>215135</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95" s="4">
         <v>26162</v>
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>44046</v>
       </c>
       <c r="B96" s="2">
         <v>13996</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="7">
         <v>7510</v>
       </c>
       <c r="D96" s="2">
         <v>9334</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="8">
         <v>21248</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="8">
         <v>210402</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="9">
         <v>35616</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="3">
         <v>248229</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I96" s="3">
         <v>297054</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="4">
         <v>70314</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96" s="4">
         <v>218351</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96" s="4">
         <v>26208</v>
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>44047</v>
       </c>
       <c r="B97" s="2">
         <v>14073</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="7">
         <v>7545</v>
       </c>
       <c r="D97" s="2">
         <v>9362</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="8">
         <v>21318</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="8">
         <v>211281</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="9">
         <v>35746</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="3">
         <v>248419</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="3">
         <v>302814</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="4">
         <v>70648</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97" s="4">
         <v>219253</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="4">
         <v>26253</v>
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>44048</v>
       </c>
       <c r="B98" s="2">
         <v>14185</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="7">
         <v>7567</v>
       </c>
       <c r="D98" s="2">
         <v>9409</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="8">
         <v>21411</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="8">
         <v>212022</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="9">
         <v>35927</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="3">
         <v>248803</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="3">
         <v>305767</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="4">
         <v>71158</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98" s="4">
         <v>220874</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98" s="4">
         <v>26303</v>
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>44049</v>
       </c>
       <c r="B99" s="2">
         <v>14306</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="7">
         <v>7596</v>
       </c>
       <c r="D99" s="2">
         <v>9468</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="8">
         <v>21494</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="8">
         <v>213067</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="9">
         <v>36108</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="3">
         <v>249204</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="3">
         <v>309855</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="4">
         <v>72016</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99" s="4">
         <v>222398</v>
       </c>
-      <c r="L99" s="5">
+      <c r="L99" s="4">
         <v>26372</v>
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>44050</v>
       </c>
       <c r="B100" s="2">
         <v>14442</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="7">
         <v>7618</v>
       </c>
       <c r="D100" s="2">
         <v>9551</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="8">
         <v>21653</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="8">
         <v>214214</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="9">
         <v>36269</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="3">
         <v>249756</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="3">
         <v>314362</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="4">
         <v>72784</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100" s="4">
         <v>224602</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100" s="4">
         <v>26470</v>
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>44051</v>
       </c>
       <c r="B101" s="2">
         <v>14442</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="7">
         <v>7635</v>
       </c>
       <c r="D101" s="2">
         <v>9599</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="8">
         <v>21772</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="8">
         <v>215336</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="9">
         <v>36451</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="3">
         <v>250103</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="3">
         <v>314362</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="4">
         <v>73401</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101" s="4">
         <v>224602</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101" s="4">
         <v>26644</v>
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>44052</v>
       </c>
       <c r="B102" s="2">
         <v>14442</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="7">
         <v>7644</v>
       </c>
       <c r="D102" s="2">
         <v>9638</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="8">
         <v>21862</v>
       </c>
-      <c r="F102" s="13">
+      <c r="F102" s="8">
         <v>215891</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="9">
         <v>36603</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="3">
         <v>250566</v>
       </c>
-      <c r="I102" s="4">
+      <c r="I102" s="3">
         <v>314362</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="4">
         <v>74152</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102" s="4">
         <v>224602</v>
       </c>
-      <c r="L102" s="5">
+      <c r="L102" s="4">
         <v>26712</v>
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <v>44053</v>
       </c>
       <c r="B103" s="2">
         <v>14815</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="7">
         <v>7679</v>
       </c>
       <c r="D103" s="2">
         <v>9684</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="8">
         <v>21966</v>
       </c>
-      <c r="F103" s="13">
+      <c r="F103" s="8">
         <v>216327</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="9">
         <v>36708</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="3">
         <v>250825</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="3">
         <v>322980</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103" s="4">
         <v>74620</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K103" s="4">
         <v>229203</v>
       </c>
-      <c r="L103" s="5">
+      <c r="L103" s="4">
         <v>26768</v>
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>44054</v>
       </c>
       <c r="B104" s="2">
         <v>14959</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="7">
         <v>7694</v>
       </c>
       <c r="D104" s="2">
         <v>9751</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="8">
         <v>22038</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="8">
         <v>217293</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="9">
         <v>36895</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="3">
         <v>251237</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I104" s="3">
         <v>326612</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104" s="4">
         <v>75008</v>
       </c>
-      <c r="K104" s="5">
+      <c r="K104" s="4">
         <v>230540</v>
       </c>
-      <c r="L104" s="5">
+      <c r="L104" s="4">
         <v>26801</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <v>44055</v>
       </c>
       <c r="B105" s="2">
         <v>15070</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="7">
         <v>7722</v>
       </c>
       <c r="D105" s="2">
         <v>9783</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="8">
         <v>22196</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="8">
         <v>218519</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="9">
         <v>37169</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="3">
         <v>251713</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I105" s="3">
         <v>329784</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J105" s="4">
         <v>75647</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105" s="4">
         <v>232966</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105" s="4">
         <v>26838</v>
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <v>44056</v>
       </c>
       <c r="B106" s="2">
         <v>15214</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="7">
         <v>7749</v>
       </c>
       <c r="D106" s="2">
         <v>9851</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="8">
         <v>22383</v>
       </c>
-      <c r="F106" s="13">
+      <c r="F106" s="8">
         <v>219964</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="9">
         <v>37403</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="3">
         <v>252235</v>
       </c>
-      <c r="I106" s="4">
+      <c r="I106" s="3">
         <v>337334</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="4">
         <v>76191</v>
       </c>
-      <c r="K106" s="5">
+      <c r="K106" s="4">
         <v>235540</v>
       </c>
-      <c r="L106" s="5">
+      <c r="L106" s="4">
         <v>26929</v>
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <v>44057</v>
       </c>
       <c r="B107" s="2">
         <v>15379</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="7">
         <v>7770</v>
       </c>
       <c r="D107" s="2">
         <v>9908</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="8">
         <v>22573</v>
       </c>
-      <c r="F107" s="13">
+      <c r="F107" s="8">
         <v>221413</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="9">
         <v>37671</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="3">
         <v>252809</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I107" s="3">
         <v>342813</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="4">
         <v>77113</v>
       </c>
-      <c r="K107" s="5">
+      <c r="K107" s="4">
         <v>238240</v>
       </c>
-      <c r="L107" s="5">
+      <c r="L107" s="4">
         <v>26995</v>
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>44058</v>
       </c>
       <c r="B108" s="2">
         <v>15483</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="7">
         <v>7797</v>
       </c>
       <c r="D108" s="2">
         <v>9965</v>
       </c>
-      <c r="E108" s="13">
+      <c r="E108" s="8">
         <v>22824</v>
       </c>
-      <c r="F108" s="13">
+      <c r="F108" s="8">
         <v>222828</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="9">
         <v>37924</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="3">
         <v>253438</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I108" s="3">
         <v>342813</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="4">
         <v>77869</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="4">
         <v>241371</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="4">
         <v>27191</v>
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>44059</v>
       </c>
       <c r="B109" s="2">
         <v>15617</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="7">
         <v>7811</v>
       </c>
       <c r="D109" s="2">
         <v>10005</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="8">
         <v>23173</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="8">
         <v>223453</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="9">
         <v>38124</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="3">
         <v>253915</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I109" s="3">
         <v>342813</v>
       </c>
-      <c r="J109" s="5">
+      <c r="J109" s="4">
         <v>78323</v>
       </c>
-      <c r="K109" s="5">
+      <c r="K109" s="4">
         <v>244335</v>
       </c>
-      <c r="L109" s="5">
+      <c r="L109" s="4">
         <v>27257</v>
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>44060</v>
       </c>
       <c r="B110" s="2">
         <v>15740</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="7">
         <v>7854</v>
       </c>
       <c r="D110" s="2">
         <v>10060</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E110" s="8">
         <v>23329</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="8">
         <v>224014</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="9">
         <v>38252</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="3">
         <v>254235</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I110" s="3">
         <v>359082</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110" s="4">
         <v>78534</v>
       </c>
-      <c r="K110" s="5">
+      <c r="K110" s="4">
         <v>244761</v>
       </c>
-      <c r="L110" s="5">
+      <c r="L110" s="4">
         <v>27313</v>
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>44061</v>
       </c>
       <c r="B111" s="2">
         <v>15855</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="7">
         <v>7881</v>
       </c>
       <c r="D111" s="2">
         <v>10111</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="8">
         <v>23498</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F111" s="8">
         <v>225404</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="9">
         <v>38449</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="3">
         <v>254636</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I111" s="3">
         <v>364196</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111" s="4">
         <v>78897</v>
       </c>
-      <c r="K111" s="5">
+      <c r="K111" s="4">
         <v>246821</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111" s="4">
         <v>27499</v>
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>44062</v>
       </c>
       <c r="B112" s="2">
         <v>15940</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="7">
         <v>7920</v>
       </c>
       <c r="D112" s="2">
         <v>10162</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="8">
         <v>23757</v>
       </c>
-      <c r="F112" s="13">
+      <c r="F112" s="8">
         <v>226914</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="9">
         <v>38760</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="3">
         <v>255278</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="3">
         <v>370867</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="4">
         <v>79479</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112" s="4">
         <v>250539</v>
       </c>
-      <c r="L112" s="5">
+      <c r="L112" s="4">
         <v>27547</v>
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>44063</v>
       </c>
       <c r="B113" s="2">
         <v>16056</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="7">
         <v>7967</v>
       </c>
       <c r="D113" s="2">
         <v>10197</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="8">
         <v>24009</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="8">
         <v>228621</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="9">
         <v>39026</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="3">
         <v>256118</v>
       </c>
-      <c r="I113" s="4">
+      <c r="I113" s="3">
         <v>377906</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113" s="4">
         <v>80178</v>
       </c>
-      <c r="K113" s="5">
+      <c r="K113" s="4">
         <v>255214</v>
       </c>
-      <c r="L113" s="5">
+      <c r="L113" s="4">
         <v>27676</v>
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>44064</v>
       </c>
       <c r="B114" s="2">
         <v>16127</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="7">
         <v>7994</v>
       </c>
       <c r="D114" s="2">
         <v>10275</v>
       </c>
-      <c r="E114" s="13">
+      <c r="E114" s="8">
         <v>24356</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="8">
         <v>230048</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="9">
         <v>39332</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="3">
         <v>257065</v>
       </c>
-      <c r="I114" s="4">
+      <c r="I114" s="3">
         <v>386054</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114" s="4">
         <v>80894</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114" s="4">
         <v>259717</v>
       </c>
-      <c r="L114" s="5">
+      <c r="L114" s="4">
         <v>27755</v>
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>44065</v>
       </c>
       <c r="B115" s="2">
         <v>16239</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="7">
         <v>8019</v>
       </c>
       <c r="D115" s="2">
         <v>10299</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="8">
         <v>24687</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115" s="8">
         <v>232082</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="9">
         <v>39627</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="3">
         <v>258136</v>
       </c>
-      <c r="I115" s="4">
+      <c r="I115" s="3">
         <v>386054</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115" s="4">
         <v>81468</v>
       </c>
-      <c r="K115" s="5">
+      <c r="K115" s="4">
         <v>263129</v>
       </c>
-      <c r="L115" s="5">
+      <c r="L115" s="4">
         <v>27908</v>
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>44066</v>
       </c>
       <c r="B116" s="2">
         <v>16317</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="7">
         <v>8035</v>
       </c>
       <c r="D116" s="2">
         <v>10323</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="8">
         <v>24989</v>
       </c>
-      <c r="F116" s="13">
+      <c r="F116" s="8">
         <v>232864</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="9">
         <v>39903</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="3">
         <v>259345</v>
       </c>
-      <c r="I116" s="4">
+      <c r="I116" s="3">
         <v>386054</v>
       </c>
-      <c r="J116" s="5">
+      <c r="J116" s="4">
         <v>81936</v>
       </c>
-      <c r="K116" s="5">
+      <c r="K116" s="4">
         <v>267589</v>
       </c>
-      <c r="L116" s="5">
+      <c r="L116" s="4">
         <v>27969</v>
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>44067</v>
       </c>
       <c r="B117" s="2">
         <v>16397</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="7">
         <v>8046</v>
       </c>
       <c r="D117" s="2">
         <v>10395</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="8">
         <v>25218</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="8">
         <v>233575</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="9">
         <v>40060</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="3">
         <v>260298</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I117" s="3">
         <v>405436</v>
       </c>
-      <c r="J117" s="5">
+      <c r="J117" s="4">
         <v>82092</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117" s="4">
         <v>269452</v>
       </c>
-      <c r="L117" s="5">
+      <c r="L117" s="4">
         <v>28116</v>
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>44068</v>
       </c>
       <c r="B118" s="2">
         <v>16480</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="7">
         <v>8063</v>
       </c>
       <c r="D118" s="2">
         <v>10454</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="8">
         <v>25411</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118" s="8">
         <v>234853</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="9">
         <v>40262</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="3">
         <v>261174</v>
       </c>
-      <c r="I118" s="4">
+      <c r="I118" s="3">
         <v>412553</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J118" s="4">
         <v>82447</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K118" s="4">
         <v>272643</v>
       </c>
-      <c r="L118" s="5">
+      <c r="L118" s="4">
         <v>28201</v>
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>44069</v>
       </c>
       <c r="B119" s="2">
         <v>16537</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="7">
         <v>8078</v>
       </c>
       <c r="D119" s="2">
         <v>10504</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="8">
         <v>25654</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119" s="8">
         <v>236429</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="9">
         <v>40645</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="3">
         <v>262540</v>
       </c>
-      <c r="I119" s="4">
+      <c r="I119" s="3">
         <v>419849</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119" s="4">
         <v>83030</v>
       </c>
-      <c r="K119" s="5">
+      <c r="K119" s="4">
         <v>272643</v>
       </c>
-      <c r="L119" s="5">
+      <c r="L119" s="4">
         <v>28363</v>
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>44070</v>
       </c>
       <c r="B120" s="2">
         <v>16627</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="7">
         <v>8098</v>
       </c>
       <c r="D120" s="2">
         <v>10542</v>
       </c>
-      <c r="E120" s="13">
+      <c r="E120" s="8">
         <v>25955</v>
       </c>
-      <c r="F120" s="13">
+      <c r="F120" s="8">
         <v>237936</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="9">
         <v>41006</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="3">
         <v>263949</v>
       </c>
-      <c r="I120" s="4">
+      <c r="I120" s="3">
         <v>429507</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120" s="4">
         <v>83500</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K120" s="4">
         <v>283698</v>
       </c>
-      <c r="L120" s="5">
+      <c r="L120" s="4">
         <v>28453</v>
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>44071</v>
       </c>
       <c r="B121" s="2">
         <v>16700</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="7">
         <v>8130</v>
       </c>
       <c r="D121" s="2">
         <v>10582</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="8">
         <v>26274</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="8">
         <v>239507</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="9">
         <v>41346</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="3">
         <v>265409</v>
       </c>
-      <c r="I121" s="4">
+      <c r="I121" s="3">
         <v>439286</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121" s="4">
         <v>83952</v>
       </c>
-      <c r="K121" s="5">
+      <c r="K121" s="4">
         <v>290929</v>
       </c>
-      <c r="L121" s="5">
+      <c r="L121" s="4">
         <v>28578</v>
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>44072</v>
       </c>
       <c r="B122" s="2">
         <v>16779</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="7">
         <v>8165</v>
       </c>
       <c r="D122" s="2">
         <v>10611</v>
       </c>
-      <c r="E122" s="13">
+      <c r="E122" s="8">
         <v>26500</v>
       </c>
-      <c r="F122" s="13">
+      <c r="F122" s="8">
         <v>240986</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="9">
         <v>41722</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="3">
         <v>266853</v>
       </c>
-      <c r="I122" s="4">
+      <c r="I122" s="3">
         <v>439286</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J122" s="4">
         <v>84599</v>
       </c>
-      <c r="K122" s="5">
+      <c r="K122" s="4">
         <v>296265</v>
       </c>
-      <c r="L122" s="5">
+      <c r="L122" s="4">
         <v>28720</v>
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>44073</v>
       </c>
       <c r="B123" s="2">
         <v>16891</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="7">
         <v>8184</v>
       </c>
       <c r="D123" s="2">
         <v>10643</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="8">
         <v>26894</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123" s="8">
         <v>241771</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="9">
         <v>42014</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="3">
         <v>268218</v>
       </c>
-      <c r="I123" s="4">
+      <c r="I123" s="3">
         <v>439286</v>
       </c>
-      <c r="J123" s="5">
+      <c r="J123" s="4">
         <v>85042</v>
       </c>
-      <c r="K123" s="5">
+      <c r="K123" s="4">
         <v>301554</v>
       </c>
-      <c r="L123" s="5">
+      <c r="L123" s="4">
         <v>28760</v>
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>44074</v>
       </c>
       <c r="B124" s="2">
         <v>16985</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="7">
         <v>8202</v>
       </c>
       <c r="D124" s="2">
         <v>10782</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="8">
         <v>27131</v>
       </c>
-      <c r="F124" s="13">
+      <c r="F124" s="8">
         <v>242381</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" s="9">
         <v>42177</v>
       </c>
-      <c r="H124" s="4">
+      <c r="H124" s="3">
         <v>269214</v>
       </c>
-      <c r="I124" s="4">
+      <c r="I124" s="3">
         <v>462858</v>
       </c>
-      <c r="J124" s="5">
+      <c r="J124" s="4">
         <v>85236</v>
       </c>
-      <c r="K124" s="5">
+      <c r="K124" s="4">
         <v>304349</v>
       </c>
-      <c r="L124" s="5">
+      <c r="L124" s="4">
         <v>28811</v>
       </c>
     </row>
